--- a/AugerLogs/DB1/DB1_metadata.xlsx
+++ b/AugerLogs/DB1/DB1_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarkLundineSurface\CarolinaBaySedimentology\AugerLogs\DB1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDB6F02-00E8-4BE2-94AE-9B495FDFB0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1859C74-0589-47AC-8A52-F490F90C9AC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6953" yWindow="6202" windowWidth="13837" windowHeight="10523" xr2:uid="{E0E72F93-7EAF-4DCC-A6B1-DDBEEAC6DDDE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{E0E72F93-7EAF-4DCC-A6B1-DDBEEAC6DDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
